--- a/ProjetoIndividual_PortalFutSP.xlsx
+++ b/ProjetoIndividual_PortalFutSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mancr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Downloads\projeto individual\Projeto-Individual-1SEM-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E8789F-EC42-4469-8A92-088EBA9F584F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83F41BB-5A58-4014-8C79-DC53FDAA24CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="8" r:id="rId1"/>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>STATUS</t>
   </si>
@@ -71,9 +69,6 @@
     <t>Fazer diagrama da solução (Arquitetura Técnica do Projeto)</t>
   </si>
   <si>
-    <t>A Fazer</t>
-  </si>
-  <si>
     <t>Fazer Diagrama de Solução</t>
   </si>
   <si>
@@ -128,16 +123,7 @@
     <t>Validar com o professor a Solução</t>
   </si>
   <si>
-    <t>Criação da logo</t>
-  </si>
-  <si>
-    <t>Criar a logo do Portal FUTSP</t>
-  </si>
-  <si>
     <t>Feito</t>
-  </si>
-  <si>
-    <t>Fazendo</t>
   </si>
   <si>
     <t>Desenvolver a documentação completa do projeto</t>
@@ -256,7 +242,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,18 +287,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -473,7 +447,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -509,9 +483,6 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -554,10 +525,7 @@
     <xf numFmtId="1" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -864,69 +832,69 @@
     <tabColor theme="3" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="62.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="106.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="62.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.19921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="106.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.69921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.19921875" style="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.75" style="1"/>
+    <col min="12" max="16384" width="10.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" ht="45" customHeight="1">
       <c r="A1" s="6"/>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="29.25" customHeight="1">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-    </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" ht="31.9" customHeight="1">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" ht="31.95" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="33"/>
-    </row>
-    <row r="4" spans="1:10" ht="25.15" customHeight="1">
-      <c r="B4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="21"/>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:10" ht="25.2" customHeight="1">
+      <c r="B4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="20"/>
       <c r="D4" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>7</v>
@@ -934,17 +902,17 @@
       <c r="F4" s="11">
         <v>3</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="25.15" customHeight="1">
-      <c r="B5" s="21" t="s">
+      <c r="G4" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25.2" customHeight="1">
+      <c r="B5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>7</v>
@@ -952,17 +920,17 @@
       <c r="F5" s="11">
         <v>3</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="25.15" customHeight="1">
-      <c r="B6" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="21"/>
+      <c r="G5" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.2" customHeight="1">
+      <c r="B6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="20"/>
       <c r="D6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>7</v>
@@ -970,15 +938,15 @@
       <c r="F6" s="11">
         <v>3</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="25.15" customHeight="1">
-      <c r="B7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="21"/>
+      <c r="G6" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="25.2" customHeight="1">
+      <c r="B7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="20"/>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
@@ -988,17 +956,17 @@
       <c r="F7" s="11">
         <v>3</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="25.15" customHeight="1">
-      <c r="B8" s="21" t="s">
+      <c r="G7" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="25.2" customHeight="1">
+      <c r="B8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>7</v>
@@ -1006,18 +974,18 @@
       <c r="F8" s="11">
         <v>3</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" spans="1:10" ht="25.15" customHeight="1">
-      <c r="B9" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="21"/>
+      <c r="G8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="1:10" ht="25.2" customHeight="1">
+      <c r="B9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="20"/>
       <c r="D9" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>7</v>
@@ -1025,17 +993,17 @@
       <c r="F9" s="11">
         <v>3</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="25.15" customHeight="1">
-      <c r="B10" s="21" t="s">
+      <c r="G9" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="25.2" customHeight="1">
+      <c r="B10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>7</v>
@@ -1043,18 +1011,18 @@
       <c r="F10" s="11">
         <v>3</v>
       </c>
-      <c r="G10" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:10" ht="25.15" customHeight="1">
-      <c r="B11" s="21" t="s">
+      <c r="G10" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" ht="25.2" customHeight="1">
+      <c r="B11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>7</v>
@@ -1062,17 +1030,17 @@
       <c r="F11" s="11">
         <v>3</v>
       </c>
-      <c r="G11" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="25.15" customHeight="1">
-      <c r="B12" s="21" t="s">
+      <c r="G11" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="25.2" customHeight="1">
+      <c r="B12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>7</v>
@@ -1080,17 +1048,17 @@
       <c r="F12" s="11">
         <v>3</v>
       </c>
-      <c r="G12" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="25.15" customHeight="1">
-      <c r="B13" s="21" t="s">
+      <c r="G12" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="25.2" customHeight="1">
+      <c r="B13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>7</v>
@@ -1098,17 +1066,18 @@
       <c r="F13" s="11">
         <v>3</v>
       </c>
-      <c r="G13" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="25.15" customHeight="1">
-      <c r="B14" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="27"/>
+      <c r="G13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="1:10" ht="25.2" customHeight="1">
+      <c r="B14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="26"/>
       <c r="D14" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>6</v>
@@ -1116,17 +1085,17 @@
       <c r="F14" s="11">
         <v>3</v>
       </c>
-      <c r="G14" s="30" t="s">
-        <v>11</v>
+      <c r="G14" s="29" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1">
-      <c r="B15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="27"/>
+      <c r="B15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="26"/>
       <c r="D15" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>6</v>
@@ -1134,141 +1103,123 @@
       <c r="F15" s="11">
         <v>3</v>
       </c>
-      <c r="G15" s="30" t="s">
-        <v>11</v>
+      <c r="G15" s="29" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1">
-      <c r="B16" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="11">
-        <v>3</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>11</v>
-      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="2:9" ht="24" customHeight="1">
-      <c r="B17" s="19"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="28"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="27"/>
     </row>
     <row r="18" spans="2:9" ht="24" customHeight="1">
-      <c r="B18" s="19"/>
-      <c r="C18" s="27"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="28"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" spans="2:9" ht="24" customHeight="1">
-      <c r="B19" s="19"/>
-      <c r="C19" s="27"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="28"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="2:9" ht="24" customHeight="1">
-      <c r="B20" s="26"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="28"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="27"/>
     </row>
     <row r="21" spans="2:9" ht="24" customHeight="1">
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="28"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" spans="2:9" ht="24" customHeight="1">
-      <c r="B22" s="26"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="28"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" spans="2:9" ht="24" customHeight="1">
-      <c r="B23" s="26"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="28"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="2:9" ht="24" customHeight="1">
-      <c r="B24" s="26"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="28"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="2:9" ht="24" customHeight="1">
-      <c r="B25" s="26"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="28"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" spans="2:9" ht="24" customHeight="1">
-      <c r="B26" s="26"/>
-      <c r="C26" s="20"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="28"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" spans="2:9" ht="24" customHeight="1">
-      <c r="B27" s="26"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="28"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="12"/>
     </row>
     <row r="28" spans="2:9" ht="24" customHeight="1">
-      <c r="B28" s="26"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="29"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="12"/>
     </row>
     <row r="29" spans="2:9" ht="24" customHeight="1">
-      <c r="B29" s="26"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="2:9" ht="24" customHeight="1">
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
